--- a/pps horas.xlsx
+++ b/pps horas.xlsx
@@ -13,7 +13,8 @@
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
-    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
+    <sheet name="Hoja3" sheetId="3" r:id="rId2"/>
+    <sheet name="Hoja2" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="90">
   <si>
     <t>Entregas</t>
   </si>
@@ -283,6 +284,18 @@
   </si>
   <si>
     <t>Capacitación Ventanas Modales Django</t>
+  </si>
+  <si>
+    <t>Busqueda en grillas</t>
+  </si>
+  <si>
+    <t>Envio de mail (fallido)</t>
+  </si>
+  <si>
+    <t>Mostrar campos Many to Many en grilla</t>
+  </si>
+  <si>
+    <t>Capacitación Celery</t>
   </si>
 </sst>
 </file>
@@ -399,6 +412,9 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -407,9 +423,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -765,7 +778,7 @@
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -774,7 +787,7 @@
       <c r="D2" s="1">
         <v>4</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="7">
         <v>30</v>
       </c>
       <c r="M2" t="s">
@@ -792,10 +805,10 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
-      <c r="B3" s="7"/>
+      <c r="B3" s="8"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
-      <c r="E3" s="7"/>
+      <c r="E3" s="8"/>
       <c r="M3" t="s">
         <v>85</v>
       </c>
@@ -808,10 +821,10 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
-      <c r="B4" s="7"/>
+      <c r="B4" s="8"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
-      <c r="E4" s="7"/>
+      <c r="E4" s="8"/>
       <c r="M4" t="s">
         <v>84</v>
       </c>
@@ -829,14 +842,14 @@
       <c r="A5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="7"/>
+      <c r="B5" s="8"/>
       <c r="C5" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D5" s="1">
         <v>1</v>
       </c>
-      <c r="E5" s="7"/>
+      <c r="E5" s="8"/>
       <c r="H5" s="2" t="s">
         <v>63</v>
       </c>
@@ -861,21 +874,21 @@
     </row>
     <row r="6" spans="1:16" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
-      <c r="B6" s="8"/>
+      <c r="B6" s="9"/>
       <c r="C6" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="1">
         <v>2</v>
       </c>
-      <c r="E6" s="7"/>
+      <c r="E6" s="8"/>
       <c r="H6" s="2" t="s">
         <v>66</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="J6" s="9">
+      <c r="J6" s="6">
         <v>3</v>
       </c>
       <c r="M6" t="s">
@@ -893,7 +906,7 @@
     </row>
     <row r="7" spans="1:16" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -902,14 +915,14 @@
       <c r="D7" s="1">
         <v>4</v>
       </c>
-      <c r="E7" s="7"/>
+      <c r="E7" s="8"/>
       <c r="H7" s="2" t="s">
         <v>68</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="J7" s="9">
+      <c r="J7" s="6">
         <v>4</v>
       </c>
       <c r="M7" t="s">
@@ -927,21 +940,21 @@
     </row>
     <row r="8" spans="1:16" ht="57" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
-      <c r="B8" s="7"/>
+      <c r="B8" s="8"/>
       <c r="C8" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D8" s="1">
         <v>2</v>
       </c>
-      <c r="E8" s="7"/>
+      <c r="E8" s="8"/>
       <c r="H8" s="2" t="s">
         <v>69</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="J8" s="9">
+      <c r="J8" s="6">
         <v>2</v>
       </c>
       <c r="M8" t="s">
@@ -959,21 +972,21 @@
     </row>
     <row r="9" spans="1:16" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
-      <c r="B9" s="7"/>
+      <c r="B9" s="8"/>
       <c r="C9" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D9" s="1">
         <v>1</v>
       </c>
-      <c r="E9" s="7"/>
+      <c r="E9" s="8"/>
       <c r="H9" s="2" t="s">
         <v>70</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="J9" s="9">
+      <c r="J9" s="6">
         <v>2</v>
       </c>
       <c r="M9" t="s">
@@ -991,21 +1004,21 @@
     </row>
     <row r="10" spans="1:16" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
-      <c r="B10" s="8"/>
+      <c r="B10" s="9"/>
       <c r="C10" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D10" s="1">
         <v>3</v>
       </c>
-      <c r="E10" s="7"/>
+      <c r="E10" s="8"/>
       <c r="H10" s="2" t="s">
         <v>71</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="J10" s="9">
+      <c r="J10" s="6">
         <v>4</v>
       </c>
       <c r="M10" s="1" t="s">
@@ -1017,7 +1030,7 @@
     </row>
     <row r="11" spans="1:16" ht="57" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="7" t="s">
         <v>16</v>
       </c>
       <c r="C11" s="1" t="s">
@@ -1026,14 +1039,14 @@
       <c r="D11" s="1">
         <v>4</v>
       </c>
-      <c r="E11" s="7"/>
+      <c r="E11" s="8"/>
       <c r="H11" s="2" t="s">
         <v>73</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="J11" s="9">
+      <c r="J11" s="6">
         <v>3</v>
       </c>
       <c r="M11" s="1" t="s">
@@ -1045,21 +1058,21 @@
     </row>
     <row r="12" spans="1:16" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
-      <c r="B12" s="7"/>
+      <c r="B12" s="8"/>
       <c r="C12" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D12" s="1">
         <v>1</v>
       </c>
-      <c r="E12" s="7"/>
+      <c r="E12" s="8"/>
       <c r="H12" s="2" t="s">
         <v>70</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="J12" s="9">
+      <c r="J12" s="6">
         <v>2</v>
       </c>
       <c r="M12" s="1" t="s">
@@ -1071,21 +1084,21 @@
     </row>
     <row r="13" spans="1:16" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
-      <c r="B13" s="7"/>
+      <c r="B13" s="8"/>
       <c r="C13" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D13" s="1">
         <v>1</v>
       </c>
-      <c r="E13" s="7"/>
+      <c r="E13" s="8"/>
       <c r="H13" s="2" t="s">
         <v>74</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="J13" s="9">
+      <c r="J13" s="6">
         <v>1</v>
       </c>
       <c r="M13" s="1" t="s">
@@ -1097,21 +1110,21 @@
     </row>
     <row r="14" spans="1:16" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
-      <c r="B14" s="8"/>
+      <c r="B14" s="9"/>
       <c r="C14" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D14" s="1">
         <v>3</v>
       </c>
-      <c r="E14" s="7"/>
+      <c r="E14" s="8"/>
       <c r="H14" s="2" t="s">
         <v>75</v>
       </c>
       <c r="I14" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="J14" s="9">
+      <c r="J14" s="6">
         <v>1</v>
       </c>
       <c r="M14" s="1" t="s">
@@ -1132,14 +1145,14 @@
       <c r="D15" s="1">
         <v>4</v>
       </c>
-      <c r="E15" s="8"/>
+      <c r="E15" s="9"/>
       <c r="H15" s="2" t="s">
         <v>76</v>
       </c>
       <c r="I15" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="J15" s="9">
+      <c r="J15" s="6">
         <v>6</v>
       </c>
     </row>
@@ -1156,7 +1169,7 @@
       <c r="D16" s="1">
         <v>6</v>
       </c>
-      <c r="E16" s="6">
+      <c r="E16" s="7">
         <v>26</v>
       </c>
       <c r="H16" s="2" t="s">
@@ -1165,7 +1178,7 @@
       <c r="I16" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="J16" s="9">
+      <c r="J16" s="6">
         <v>1</v>
       </c>
     </row>
@@ -1173,7 +1186,7 @@
       <c r="A17" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="7" t="s">
         <v>26</v>
       </c>
       <c r="C17" s="1" t="s">
@@ -1182,42 +1195,42 @@
       <c r="D17" s="1">
         <v>8</v>
       </c>
-      <c r="E17" s="7"/>
+      <c r="E17" s="8"/>
       <c r="H17" s="2" t="s">
         <v>78</v>
       </c>
       <c r="I17" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="J17" s="9">
+      <c r="J17" s="6">
         <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
-      <c r="B18" s="7"/>
+      <c r="B18" s="8"/>
       <c r="C18" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D18" s="1">
         <v>2</v>
       </c>
-      <c r="E18" s="7"/>
+      <c r="E18" s="8"/>
     </row>
     <row r="19" spans="1:10" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
-      <c r="B19" s="8"/>
+      <c r="B19" s="9"/>
       <c r="C19" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D19" s="1">
         <v>4</v>
       </c>
-      <c r="E19" s="7"/>
+      <c r="E19" s="8"/>
     </row>
     <row r="20" spans="1:10" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="7" t="s">
         <v>30</v>
       </c>
       <c r="C20" s="1" t="s">
@@ -1226,24 +1239,24 @@
       <c r="D20" s="1">
         <v>4</v>
       </c>
-      <c r="E20" s="7"/>
+      <c r="E20" s="8"/>
     </row>
     <row r="21" spans="1:10" ht="57" x14ac:dyDescent="0.25">
       <c r="A21" s="5"/>
-      <c r="B21" s="8"/>
+      <c r="B21" s="9"/>
       <c r="C21" s="1" t="s">
         <v>32</v>
       </c>
       <c r="D21" s="1">
         <v>2</v>
       </c>
-      <c r="E21" s="8"/>
+      <c r="E21" s="9"/>
     </row>
     <row r="22" spans="1:10" ht="57" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="7" t="s">
         <v>35</v>
       </c>
       <c r="C22" s="1" t="s">
@@ -1252,7 +1265,7 @@
       <c r="D22" s="1">
         <v>4</v>
       </c>
-      <c r="E22" s="6">
+      <c r="E22" s="7">
         <v>31</v>
       </c>
     </row>
@@ -1260,18 +1273,18 @@
       <c r="A23" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B23" s="8"/>
+      <c r="B23" s="9"/>
       <c r="C23" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D23" s="1">
         <v>6</v>
       </c>
-      <c r="E23" s="7"/>
+      <c r="E23" s="8"/>
     </row>
     <row r="24" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="7" t="s">
         <v>38</v>
       </c>
       <c r="C24" s="1" t="s">
@@ -1280,33 +1293,33 @@
       <c r="D24" s="1">
         <v>3</v>
       </c>
-      <c r="E24" s="7"/>
+      <c r="E24" s="8"/>
     </row>
     <row r="25" spans="1:10" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
-      <c r="B25" s="7"/>
+      <c r="B25" s="8"/>
       <c r="C25" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D25" s="1">
         <v>6</v>
       </c>
-      <c r="E25" s="7"/>
+      <c r="E25" s="8"/>
     </row>
     <row r="26" spans="1:10" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
-      <c r="B26" s="8"/>
+      <c r="B26" s="9"/>
       <c r="C26" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D26" s="1">
         <v>3</v>
       </c>
-      <c r="E26" s="7"/>
+      <c r="E26" s="8"/>
     </row>
     <row r="27" spans="1:10" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
-      <c r="B27" s="6" t="s">
+      <c r="B27" s="7" t="s">
         <v>42</v>
       </c>
       <c r="C27" s="1" t="s">
@@ -1315,35 +1328,35 @@
       <c r="D27" s="1">
         <v>4</v>
       </c>
-      <c r="E27" s="7"/>
+      <c r="E27" s="8"/>
     </row>
     <row r="28" spans="1:10" ht="57" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
-      <c r="B28" s="7"/>
+      <c r="B28" s="8"/>
       <c r="C28" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D28" s="1">
         <v>1</v>
       </c>
-      <c r="E28" s="7"/>
+      <c r="E28" s="8"/>
     </row>
     <row r="29" spans="1:10" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A29" s="5"/>
-      <c r="B29" s="8"/>
+      <c r="B29" s="9"/>
       <c r="C29" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D29" s="1">
         <v>4</v>
       </c>
-      <c r="E29" s="8"/>
+      <c r="E29" s="9"/>
     </row>
     <row r="30" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B30" s="6" t="s">
+      <c r="B30" s="7" t="s">
         <v>48</v>
       </c>
       <c r="C30" s="1" t="s">
@@ -1352,7 +1365,7 @@
       <c r="D30" s="1">
         <v>8</v>
       </c>
-      <c r="E30" s="6">
+      <c r="E30" s="7">
         <v>26</v>
       </c>
     </row>
@@ -1360,31 +1373,31 @@
       <c r="A31" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B31" s="7"/>
+      <c r="B31" s="8"/>
       <c r="C31" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D31" s="1">
         <v>12</v>
       </c>
-      <c r="E31" s="7"/>
+      <c r="E31" s="8"/>
     </row>
     <row r="32" spans="1:10" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A32" s="5"/>
-      <c r="B32" s="8"/>
+      <c r="B32" s="9"/>
       <c r="C32" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D32" s="1">
         <v>6</v>
       </c>
-      <c r="E32" s="8"/>
+      <c r="E32" s="9"/>
     </row>
     <row r="33" spans="1:5" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B33" s="6" t="s">
+      <c r="B33" s="7" t="s">
         <v>54</v>
       </c>
       <c r="C33" s="1" t="s">
@@ -1393,7 +1406,7 @@
       <c r="D33" s="1">
         <v>4</v>
       </c>
-      <c r="E33" s="6">
+      <c r="E33" s="7">
         <v>25</v>
       </c>
     </row>
@@ -1401,40 +1414,40 @@
       <c r="A34" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B34" s="7"/>
+      <c r="B34" s="8"/>
       <c r="C34" s="1" t="s">
         <v>56</v>
       </c>
       <c r="D34" s="1">
         <v>2</v>
       </c>
-      <c r="E34" s="7"/>
+      <c r="E34" s="8"/>
     </row>
     <row r="35" spans="1:5" ht="57" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
-      <c r="B35" s="7"/>
+      <c r="B35" s="8"/>
       <c r="C35" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D35" s="1">
         <v>2</v>
       </c>
-      <c r="E35" s="7"/>
+      <c r="E35" s="8"/>
     </row>
     <row r="36" spans="1:5" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A36" s="4"/>
-      <c r="B36" s="8"/>
+      <c r="B36" s="9"/>
       <c r="C36" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D36" s="1">
         <v>5</v>
       </c>
-      <c r="E36" s="7"/>
+      <c r="E36" s="8"/>
     </row>
     <row r="37" spans="1:5" ht="114" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
-      <c r="B37" s="6" t="s">
+      <c r="B37" s="7" t="s">
         <v>59</v>
       </c>
       <c r="C37" s="1" t="s">
@@ -1443,32 +1456,39 @@
       <c r="D37" s="1">
         <v>4</v>
       </c>
-      <c r="E37" s="7"/>
+      <c r="E37" s="8"/>
     </row>
     <row r="38" spans="1:5" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
-      <c r="B38" s="7"/>
+      <c r="B38" s="8"/>
       <c r="C38" s="1" t="s">
         <v>61</v>
       </c>
       <c r="D38" s="1">
         <v>4</v>
       </c>
-      <c r="E38" s="7"/>
+      <c r="E38" s="8"/>
     </row>
     <row r="39" spans="1:5" ht="114" x14ac:dyDescent="0.25">
       <c r="A39" s="5"/>
-      <c r="B39" s="8"/>
+      <c r="B39" s="9"/>
       <c r="C39" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D39" s="1">
         <v>4</v>
       </c>
-      <c r="E39" s="8"/>
+      <c r="E39" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="E2:E15"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="E16:E21"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="B20:B21"/>
     <mergeCell ref="B33:B36"/>
     <mergeCell ref="E33:E39"/>
     <mergeCell ref="B37:B39"/>
@@ -1478,13 +1498,6 @@
     <mergeCell ref="B27:B29"/>
     <mergeCell ref="B30:B32"/>
     <mergeCell ref="E30:E32"/>
-    <mergeCell ref="B2:B6"/>
-    <mergeCell ref="E2:E15"/>
-    <mergeCell ref="B7:B10"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="E16:E21"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="B20:B21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -1496,7 +1509,199 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="50.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2">
+        <v>4</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3">
+        <v>6</v>
+      </c>
+      <c r="C3">
+        <v>4</v>
+      </c>
+      <c r="D3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5">
+        <v>6</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9">
+        <v>4</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>88</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>86</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>3</v>
+      </c>
+      <c r="D11" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>87</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>89</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>4</v>
+      </c>
+      <c r="D14" t="s">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1675,5 +1880,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>